--- a/biology/Zoologie/Euneoophora/Euneoophora.xlsx
+++ b/biology/Zoologie/Euneoophora/Euneoophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euneoophora sont une super-classe de vers plats du sous-embranchement des Rhabditophora. Ils remplacent les Neoophora à la suite des études phylogénétiques réorganisant la hiérarchie des Rhabditophora, en écartant les Gnosonesimidae et les Prorhynchida, ce dernier taxon étant regroupé, avec les Polycladida phylogénétiquement proche, dans la super-classe des Amplimatricata.
 </t>
@@ -511,24 +523,130 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le clade des Euneoophora a été créé en 2014 par Christopher E. Laumer (d) et Gonzalo Giribet (d)[1].
-Ce taxon est considéré, dans la base de données ITIS      (6 février 2024)[2], comme une super-classe de Trepaxonemata, un infra-embranchement du sous-embranchement des Rhabditophora, infra-embranchement qui regroupe tous les Rhabditophora qui ne sont pas des Macrostomorpha.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Euneoophora a été créé en 2014 par Christopher E. Laumer (d) et Gonzalo Giribet (d).
+Ce taxon est considéré, dans la base de données ITIS      (6 février 2024), comme une super-classe de Trepaxonemata, un infra-embranchement du sous-embranchement des Rhabditophora, infra-embranchement qui regroupe tous les Rhabditophora qui ne sont pas des Macrostomorpha.
 Euneoophora n'est pas répertorié par la base de données WoRMS.
-Synonymes
-D'après ITIS      (6 février 2024)[2], Euneoophora a pour synonyme :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euneoophora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euneoophora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après ITIS      (6 février 2024), Euneoophora a pour synonyme :
 Alloeocoela Graff, 1882
 Alloiocoela Graff, 1882
 Neorhabdocoela
 Neoophora Westblad, 1948
 Revertospermata Kornakova and Joffe, 1999
 Mediofusata Kornakova and Joffe, 1999
-Eulecithophora de Beauchamp, 1961
-Phylogénie
-Selon Turbellarian Taxonomic Database, Version 2.0[3],[4].
-Sous-taxons
-Selon la base de données ITIS      (6 février 2024)[2], la super-classe des Euneoophora se décompose comme suit en classe , sous-classe, infra-classe et ordre :
+Eulecithophora de Beauchamp, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euneoophora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euneoophora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euneoophora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euneoophora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de données ITIS      (6 février 2024), la super-classe des Euneoophora se décompose comme suit en classe , sous-classe, infra-classe et ordre :
 Super-classe des Euneoophora :
 classe des Acentrosomata
 sous-classe des Adiaphanida
